--- a/sputnik/personal/uch/uch9.xlsx
+++ b/sputnik/personal/uch/uch9.xlsx
@@ -148,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -169,19 +169,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -492,7 +489,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -506,10 +503,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -518,7 +515,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="10">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -530,7 +527,7 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="10">
         <v>43295</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -542,7 +539,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="10">
         <v>43586</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -554,7 +551,9 @@
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="10">
+        <v>43587</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -564,7 +563,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="11">
         <v>43871</v>
       </c>
       <c r="B7" s="4" t="s">

--- a/sputnik/personal/uch/uch9.xlsx
+++ b/sputnik/personal/uch/uch9.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -34,6 +31,15 @@
   </si>
   <si>
     <t>Начислен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №9</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты на 132 дня</t>
   </si>
 </sst>
 </file>
@@ -148,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -169,16 +175,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -489,7 +496,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -503,10 +510,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="13"/>
+      <c r="A2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -515,11 +524,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="11">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6">
         <v>10729.04</v>
@@ -527,11 +536,11 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>43295</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6">
@@ -539,11 +548,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>43586</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7">
         <v>10576.72</v>
@@ -551,11 +560,11 @@
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>43587</v>
+      <c r="A6" s="12">
+        <v>43739</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9">
@@ -563,11 +572,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="12">
         <v>43871</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9">
@@ -575,9 +584,15 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="14">
+        <v>43871</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1382.83</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -587,9 +602,6 @@
       <c r="D9" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch9.xlsx
+++ b/sputnik/personal/uch/uch9.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,13 +40,16 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты на 132 дня</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +61,13 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -154,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -186,6 +196,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -493,10 +505,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C9" sqref="C9:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -584,22 +596,46 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="15">
         <v>43871</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="16">
         <v>1382.83</v>
       </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="14">
+        <v>43952</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>11900</v>
+      </c>
       <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch9.xlsx
+++ b/sputnik/personal/uch/uch9.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты на 105 дня</t>
+  </si>
+  <si>
+    <t>итого</t>
   </si>
 </sst>
 </file>
@@ -164,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -198,6 +204,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -505,10 +516,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -620,22 +631,48 @@
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="14">
+        <v>44210</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9">
+        <v>11900</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="15">
+        <v>44210</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1249.5</v>
+      </c>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9">
+        <f>SUM(C3:C11)</f>
+        <v>35838.090000000004</v>
+      </c>
+      <c r="D12" s="9">
+        <f>SUM(D3:D11)</f>
+        <v>33205.040000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="19">
+        <f>SUM(D12,-C12)</f>
+        <v>-2633.0500000000029</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch9.xlsx
+++ b/sputnik/personal/uch/uch9.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,13 +49,16 @@
   </si>
   <si>
     <t>итого</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +77,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -170,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -209,6 +218,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -516,10 +528,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -655,22 +667,34 @@
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="20">
+        <v>44317</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="22">
+        <v>12690.88</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C13" s="9">
         <f>SUM(C3:C11)</f>
         <v>35838.090000000004</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="9">
         <f>SUM(D3:D11)</f>
         <v>33205.040000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="19">
-        <f>SUM(D12,-C12)</f>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="19">
+        <f>SUM(D13,-C13)</f>
         <v>-2633.0500000000029</v>
       </c>
     </row>

--- a/sputnik/personal/uch/uch9.xlsx
+++ b/sputnik/personal/uch/uch9.xlsx
@@ -531,7 +531,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -684,18 +684,18 @@
         <v>10</v>
       </c>
       <c r="C13" s="9">
-        <f>SUM(C3:C11)</f>
-        <v>35838.090000000004</v>
+        <f>SUM(C3:C12)</f>
+        <v>48528.97</v>
       </c>
       <c r="D13" s="9">
-        <f>SUM(D3:D11)</f>
+        <f>SUM(D3:D12)</f>
         <v>33205.040000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" s="19">
         <f>SUM(D13,-C13)</f>
-        <v>-2633.0500000000029</v>
+        <v>-15323.93</v>
       </c>
     </row>
   </sheetData>
